--- a/notasUnivalle.xlsx
+++ b/notasUnivalle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyects\notas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\app-notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C4148F-FF25-41C3-99F9-BE3B5E70C654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85E7F0A-1DC3-457F-92F7-5BADB99414F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DE8AD933-552D-4B6E-A93C-70195FD900B9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DE8AD933-552D-4B6E-A93C-70195FD900B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -576,7 +576,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">

--- a/notasUnivalle.xlsx
+++ b/notasUnivalle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\app-notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyects\notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85E7F0A-1DC3-457F-92F7-5BADB99414F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C4148F-FF25-41C3-99F9-BE3B5E70C654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DE8AD933-552D-4B6E-A93C-70195FD900B9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DE8AD933-552D-4B6E-A93C-70195FD900B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -576,7 +576,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
